--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Neo1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.4956816662779</v>
+        <v>0.8750386666666667</v>
       </c>
       <c r="H2">
-        <v>10.4956816662779</v>
+        <v>2.625116</v>
       </c>
       <c r="I2">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="J2">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N2">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O2">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P2">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q2">
-        <v>14.97192798995958</v>
+        <v>2.076517216563111</v>
       </c>
       <c r="R2">
-        <v>14.97192798995958</v>
+        <v>18.688654949068</v>
       </c>
       <c r="S2">
-        <v>0.01550705321851145</v>
+        <v>0.001943095204226197</v>
       </c>
       <c r="T2">
-        <v>0.01550705321851145</v>
+        <v>0.001943095204226197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.4956816662779</v>
+        <v>0.8750386666666667</v>
       </c>
       <c r="H3">
-        <v>10.4956816662779</v>
+        <v>2.625116</v>
       </c>
       <c r="I3">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="J3">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N3">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O3">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P3">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q3">
-        <v>452.5340936661147</v>
+        <v>37.85761745555111</v>
       </c>
       <c r="R3">
-        <v>452.5340936661147</v>
+        <v>340.71855709996</v>
       </c>
       <c r="S3">
-        <v>0.4687085242713775</v>
+        <v>0.03542516013571208</v>
       </c>
       <c r="T3">
-        <v>0.4687085242713775</v>
+        <v>0.03542516013571208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.4956816662779</v>
+        <v>0.8750386666666667</v>
       </c>
       <c r="H4">
-        <v>10.4956816662779</v>
+        <v>2.625116</v>
       </c>
       <c r="I4">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="J4">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N4">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O4">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P4">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q4">
-        <v>4.403694388537424</v>
+        <v>0.4081428268955555</v>
       </c>
       <c r="R4">
-        <v>4.403694388537424</v>
+        <v>3.67328544206</v>
       </c>
       <c r="S4">
-        <v>0.004561090815218011</v>
+        <v>0.0003819185139686385</v>
       </c>
       <c r="T4">
-        <v>0.004561090815218011</v>
+        <v>0.0003819185139686385</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.4956816662779</v>
+        <v>0.8750386666666667</v>
       </c>
       <c r="H5">
-        <v>10.4956816662779</v>
+        <v>2.625116</v>
       </c>
       <c r="I5">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="J5">
-        <v>0.6863280461204312</v>
+        <v>0.05304058862308838</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.1726333845493</v>
+        <v>18.67383333333333</v>
       </c>
       <c r="N5">
-        <v>18.1726333845493</v>
+        <v>56.0215</v>
       </c>
       <c r="O5">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="P5">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="Q5">
-        <v>190.7341750422038</v>
+        <v>16.34032622155556</v>
       </c>
       <c r="R5">
-        <v>190.7341750422038</v>
+        <v>147.062935994</v>
       </c>
       <c r="S5">
-        <v>0.1975513778153243</v>
+        <v>0.01529041476918147</v>
       </c>
       <c r="T5">
-        <v>0.1975513778153243</v>
+        <v>0.01529041476918147</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.328545951611541</v>
+        <v>10.61942</v>
       </c>
       <c r="H6">
-        <v>0.328545951611541</v>
+        <v>31.85826</v>
       </c>
       <c r="I6">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="J6">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N6">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O6">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P6">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q6">
-        <v>0.4686657318052175</v>
+        <v>25.20049604655333</v>
       </c>
       <c r="R6">
-        <v>0.4686657318052175</v>
+        <v>226.80446441898</v>
       </c>
       <c r="S6">
-        <v>0.0004854167378890623</v>
+        <v>0.02358129401557542</v>
       </c>
       <c r="T6">
-        <v>0.0004854167378890623</v>
+        <v>0.02358129401557542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.328545951611541</v>
+        <v>10.61942</v>
       </c>
       <c r="H7">
-        <v>0.328545951611541</v>
+        <v>31.85826</v>
       </c>
       <c r="I7">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="J7">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N7">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O7">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P7">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q7">
-        <v>14.16565871256325</v>
+        <v>459.4379143167333</v>
       </c>
       <c r="R7">
-        <v>14.16565871256325</v>
+        <v>4134.9412288506</v>
       </c>
       <c r="S7">
-        <v>0.01467196634116203</v>
+        <v>0.4299177492138065</v>
       </c>
       <c r="T7">
-        <v>0.01467196634116203</v>
+        <v>0.4299177492138065</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.328545951611541</v>
+        <v>10.61942</v>
       </c>
       <c r="H8">
-        <v>0.328545951611541</v>
+        <v>31.85826</v>
       </c>
       <c r="I8">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="J8">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N8">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O8">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P8">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q8">
-        <v>0.1378486895364766</v>
+        <v>4.953198371566666</v>
       </c>
       <c r="R8">
-        <v>0.1378486895364766</v>
+        <v>44.5787853441</v>
       </c>
       <c r="S8">
-        <v>0.0001427756643084132</v>
+        <v>0.004634941586134296</v>
       </c>
       <c r="T8">
-        <v>0.0001427756643084132</v>
+        <v>0.004634941586134296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.328545951611541</v>
+        <v>10.61942</v>
       </c>
       <c r="H9">
-        <v>0.328545951611541</v>
+        <v>31.85826</v>
       </c>
       <c r="I9">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="J9">
-        <v>0.02148410252902541</v>
+        <v>0.6436975977089742</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.1726333845493</v>
+        <v>18.67383333333333</v>
       </c>
       <c r="N9">
-        <v>18.1726333845493</v>
+        <v>56.0215</v>
       </c>
       <c r="O9">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="P9">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="Q9">
-        <v>5.970545128614408</v>
+        <v>198.3052791766667</v>
       </c>
       <c r="R9">
-        <v>5.970545128614408</v>
+        <v>1784.74751259</v>
       </c>
       <c r="S9">
-        <v>0.006183943785665904</v>
+        <v>0.1855636128934581</v>
       </c>
       <c r="T9">
-        <v>0.006183943785665904</v>
+        <v>0.1855636128934581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.46828698297273</v>
+        <v>0.4029073333333333</v>
       </c>
       <c r="H10">
-        <v>4.46828698297273</v>
+        <v>1.208722</v>
       </c>
       <c r="I10">
-        <v>0.2921878513505434</v>
+        <v>0.02442228319117198</v>
       </c>
       <c r="J10">
-        <v>0.2921878513505434</v>
+        <v>0.02442228319117198</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N10">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O10">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P10">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q10">
-        <v>6.37394245315997</v>
+        <v>0.9561223363228887</v>
       </c>
       <c r="R10">
-        <v>6.37394245315997</v>
+        <v>8.605101026905999</v>
       </c>
       <c r="S10">
-        <v>0.006601759299080621</v>
+        <v>0.0008946888143010431</v>
       </c>
       <c r="T10">
-        <v>0.006601759299080621</v>
+        <v>0.0008946888143010431</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.46828698297273</v>
+        <v>0.4029073333333333</v>
       </c>
       <c r="H11">
-        <v>4.46828698297273</v>
+        <v>1.208722</v>
       </c>
       <c r="I11">
-        <v>0.2921878513505434</v>
+        <v>0.02442228319117198</v>
       </c>
       <c r="J11">
-        <v>0.2921878513505434</v>
+        <v>0.02442228319117198</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N11">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O11">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P11">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q11">
-        <v>192.6556334665156</v>
+        <v>17.43135735186889</v>
       </c>
       <c r="R11">
-        <v>192.6556334665156</v>
+        <v>156.88221616682</v>
       </c>
       <c r="S11">
-        <v>0.1995415128241849</v>
+        <v>0.01631134411186331</v>
       </c>
       <c r="T11">
-        <v>0.1995415128241849</v>
+        <v>0.01631134411186331</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.46828698297273</v>
+        <v>0.4029073333333333</v>
       </c>
       <c r="H12">
-        <v>4.46828698297273</v>
+        <v>1.208722</v>
       </c>
       <c r="I12">
-        <v>0.2921878513505434</v>
+        <v>0.02442228319117198</v>
       </c>
       <c r="J12">
-        <v>0.2921878513505434</v>
+        <v>0.02442228319117198</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N12">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O12">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P12">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q12">
-        <v>1.874768208387355</v>
+        <v>0.1879273959744444</v>
       </c>
       <c r="R12">
-        <v>1.874768208387355</v>
+        <v>1.69134656377</v>
       </c>
       <c r="S12">
-        <v>0.00194177599567219</v>
+        <v>0.0001758525375797491</v>
       </c>
       <c r="T12">
-        <v>0.00194177599567219</v>
+        <v>0.0001758525375797491</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4029073333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.208722</v>
+      </c>
+      <c r="I13">
+        <v>0.02442228319117198</v>
+      </c>
+      <c r="J13">
+        <v>0.02442228319117198</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.67383333333333</v>
+      </c>
+      <c r="N13">
+        <v>56.0215</v>
+      </c>
+      <c r="O13">
+        <v>0.2882776222156329</v>
+      </c>
+      <c r="P13">
+        <v>0.2882776222156329</v>
+      </c>
+      <c r="Q13">
+        <v>7.523824391444444</v>
+      </c>
+      <c r="R13">
+        <v>67.71441952299999</v>
+      </c>
+      <c r="S13">
+        <v>0.007040397727427875</v>
+      </c>
+      <c r="T13">
+        <v>0.007040397727427875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.600163333333334</v>
+      </c>
+      <c r="H14">
+        <v>13.80049</v>
+      </c>
+      <c r="I14">
+        <v>0.2788395304767656</v>
+      </c>
+      <c r="J14">
+        <v>0.2788395304767655</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.373057666666667</v>
+      </c>
+      <c r="N14">
+        <v>7.119173</v>
+      </c>
+      <c r="O14">
+        <v>0.03663411841135517</v>
+      </c>
+      <c r="P14">
+        <v>0.03663411841135517</v>
+      </c>
+      <c r="Q14">
+        <v>10.91645286608555</v>
+      </c>
+      <c r="R14">
+        <v>98.24807579477</v>
+      </c>
+      <c r="S14">
+        <v>0.01021504037725251</v>
+      </c>
+      <c r="T14">
+        <v>0.01021504037725251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.600163333333334</v>
+      </c>
+      <c r="H15">
+        <v>13.80049</v>
+      </c>
+      <c r="I15">
+        <v>0.2788395304767656</v>
+      </c>
+      <c r="J15">
+        <v>0.2788395304767655</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>43.26393666666667</v>
+      </c>
+      <c r="N15">
+        <v>129.79181</v>
+      </c>
+      <c r="O15">
+        <v>0.6678877639810287</v>
+      </c>
+      <c r="P15">
+        <v>0.6678877639810287</v>
+      </c>
+      <c r="Q15">
+        <v>199.0211751096556</v>
+      </c>
+      <c r="R15">
+        <v>1791.1905759869</v>
+      </c>
+      <c r="S15">
+        <v>0.1862335105196468</v>
+      </c>
+      <c r="T15">
+        <v>0.1862335105196468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.46828698297273</v>
-      </c>
-      <c r="H13">
-        <v>4.46828698297273</v>
-      </c>
-      <c r="I13">
-        <v>0.2921878513505434</v>
-      </c>
-      <c r="J13">
-        <v>0.2921878513505434</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>18.1726333845493</v>
-      </c>
-      <c r="N13">
-        <v>18.1726333845493</v>
-      </c>
-      <c r="O13">
-        <v>0.2878381248325958</v>
-      </c>
-      <c r="P13">
-        <v>0.2878381248325958</v>
-      </c>
-      <c r="Q13">
-        <v>81.2005411985173</v>
-      </c>
-      <c r="R13">
-        <v>81.2005411985173</v>
-      </c>
-      <c r="S13">
-        <v>0.08410280323160564</v>
-      </c>
-      <c r="T13">
-        <v>0.08410280323160564</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.600163333333334</v>
+      </c>
+      <c r="H16">
+        <v>13.80049</v>
+      </c>
+      <c r="I16">
+        <v>0.2788395304767656</v>
+      </c>
+      <c r="J16">
+        <v>0.2788395304767655</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4664283333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.399285</v>
+      </c>
+      <c r="O16">
+        <v>0.007200495391983466</v>
+      </c>
+      <c r="P16">
+        <v>0.007200495391983466</v>
+      </c>
+      <c r="Q16">
+        <v>2.145646516627778</v>
+      </c>
+      <c r="R16">
+        <v>19.31081864965</v>
+      </c>
+      <c r="S16">
+        <v>0.002007782754300784</v>
+      </c>
+      <c r="T16">
+        <v>0.002007782754300783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.600163333333334</v>
+      </c>
+      <c r="H17">
+        <v>13.80049</v>
+      </c>
+      <c r="I17">
+        <v>0.2788395304767656</v>
+      </c>
+      <c r="J17">
+        <v>0.2788395304767655</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.67383333333333</v>
+      </c>
+      <c r="N17">
+        <v>56.0215</v>
+      </c>
+      <c r="O17">
+        <v>0.2882776222156329</v>
+      </c>
+      <c r="P17">
+        <v>0.2882776222156329</v>
+      </c>
+      <c r="Q17">
+        <v>85.90268339277779</v>
+      </c>
+      <c r="R17">
+        <v>773.124150535</v>
+      </c>
+      <c r="S17">
+        <v>0.08038319682556547</v>
+      </c>
+      <c r="T17">
+        <v>0.08038319682556545</v>
       </c>
     </row>
   </sheetData>
